--- a/analytics_database.xlsx
+++ b/analytics_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STREAMLIT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5F106-45ED-440E-918A-B228821BA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FA8B0E-FD6D-418D-AB12-5F6DD56E262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{8177A90C-9480-4AB4-BAA1-C9EED01FBDB6}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{8177A90C-9480-4AB4-BAA1-C9EED01FBDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="homepagedata" sheetId="2" r:id="rId1"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A0F2DA-AB48-42A7-BEEF-E2C47D2483E3}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2177,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945A0038-29F7-488C-B226-8CFF66165811}">
   <dimension ref="A2:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
